--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -30,7 +30,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>hjj</t>
+    <t>qinjianping</t>
   </si>
   <si>
     <t>桂林电子科技大学</t>
@@ -59,7 +59,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,25 +180,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,106 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +422,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -451,11 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,11 +466,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,168 +509,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,8 +1019,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
